--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06上月\2024\2024\03 DxLib\free-sea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE95A7F-E27D-4570-8383-3346C4D55798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018A962-B932-4DD2-951A-22C83AA4E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
